--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1778.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1778.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8975293847482947</v>
+        <v>0.738477885723114</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.407269716262817</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.557394981384277</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.717284083366394</v>
       </c>
       <c r="E1">
-        <v>1.206931851131017</v>
+        <v>1.185778737068176</v>
       </c>
     </row>
   </sheetData>
